--- a/Annotations/Old/Ulysses.xlsx
+++ b/Annotations/Old/Ulysses.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="UlyssesV2" sheetId="1" r:id="rId1"/>
@@ -1863,14 +1863,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P303"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G304" sqref="G304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="49.109375" style="2" customWidth="1"/>
@@ -1932,7 +1933,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.97003235680301436</v>
+        <v>0.9001048116057101</v>
       </c>
       <c r="B2" s="2">
         <v>37</v>
@@ -1959,7 +1960,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72835517121194859</v>
+        <v>0.25034229103968531</v>
       </c>
       <c r="B3" s="2">
         <v>38</v>
@@ -1986,7 +1987,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13983563250563336</v>
+        <v>0.52111072777746437</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
@@ -2010,7 +2011,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94131220466727306</v>
+        <v>0.39077808684379489</v>
       </c>
       <c r="B5" s="2">
         <v>216</v>
@@ -2031,7 +2032,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44029260136096393</v>
+        <v>0.66251004093346677</v>
       </c>
       <c r="B6" s="2">
         <v>52</v>
@@ -2055,7 +2056,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59844597218614204</v>
+        <v>0.98433561671517567</v>
       </c>
       <c r="B7" s="2">
         <v>148</v>
@@ -2079,7 +2080,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68609444305929168</v>
+        <v>3.3618244691637766E-2</v>
       </c>
       <c r="B8" s="2">
         <v>247</v>
@@ -2103,7 +2104,7 @@
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79397921592961007</v>
+        <v>0.93878255258592114</v>
       </c>
       <c r="B9" s="2">
         <v>287</v>
@@ -2127,7 +2128,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36973952612566996</v>
+        <v>0.32436077832728072</v>
       </c>
       <c r="B10" s="2">
         <v>75</v>
@@ -2151,7 +2152,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5326038605075381E-2</v>
+        <v>0.94514963904648963</v>
       </c>
       <c r="B11" s="2">
         <v>122</v>
@@ -2172,7 +2173,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53769102222012088</v>
+        <v>0.30046644903783282</v>
       </c>
       <c r="B12" s="2">
         <v>64</v>
@@ -2196,7 +2197,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6080492515975244E-2</v>
+        <v>0.67276713028265411</v>
       </c>
       <c r="B13" s="2">
         <v>119</v>
@@ -2220,7 +2221,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13949490761241246</v>
+        <v>0.15906091377370957</v>
       </c>
       <c r="B14" s="2">
         <v>201</v>
@@ -2241,7 +2242,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12310765995789263</v>
+        <v>0.89274242946254578</v>
       </c>
       <c r="B15" s="2">
         <v>63</v>
@@ -2265,7 +2266,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53242756439854055</v>
+        <v>0.63021436062766956</v>
       </c>
       <c r="B16" s="2">
         <v>168</v>
@@ -2292,7 +2293,7 @@
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93453442974129031</v>
+        <v>0.75387364483532993</v>
       </c>
       <c r="B17" s="2">
         <v>138</v>
@@ -2316,7 +2317,7 @@
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95645812682279963</v>
+        <v>0.61203640346737398</v>
       </c>
       <c r="B18" s="2">
         <v>11</v>
@@ -2340,7 +2341,7 @@
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66087745572143752</v>
+        <v>0.87568289411984013</v>
       </c>
       <c r="B19" s="2">
         <v>199</v>
@@ -2367,7 +2368,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93564686139343334</v>
+        <v>0.82140915880407583</v>
       </c>
       <c r="B20" s="2">
         <v>300</v>
@@ -2391,7 +2392,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87479783297401204</v>
+        <v>0.35121294773499379</v>
       </c>
       <c r="B21" s="2">
         <v>217</v>
@@ -2415,7 +2416,7 @@
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60352074518875687</v>
+        <v>0.22354627935417282</v>
       </c>
       <c r="B22" s="2">
         <v>231</v>
@@ -2436,7 +2437,7 @@
     <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79770856970771753</v>
+        <v>7.1036687497726847E-2</v>
       </c>
       <c r="B23" s="2">
         <v>23</v>
@@ -2460,7 +2461,7 @@
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15167890660958627</v>
+        <v>0.33721839721302438</v>
       </c>
       <c r="B24" s="2">
         <v>40</v>
@@ -2484,7 +2485,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91785866640096447</v>
+        <v>0.76512123853332359</v>
       </c>
       <c r="B25" s="2">
         <v>175</v>
@@ -2511,7 +2512,7 @@
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25741666826641874</v>
+        <v>9.2572049643052545E-2</v>
       </c>
       <c r="B26" s="2">
         <v>180</v>
@@ -2535,7 +2536,7 @@
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.570537866708114E-2</v>
+        <v>0.9755679918138398</v>
       </c>
       <c r="B27" s="2">
         <v>128</v>
@@ -2559,7 +2560,7 @@
     <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54158697288302893</v>
+        <v>0.80322160431612</v>
       </c>
       <c r="B28" s="2">
         <v>289</v>
@@ -2586,7 +2587,7 @@
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47506554455601868</v>
+        <v>0.15911790501723655</v>
       </c>
       <c r="B29" s="2">
         <v>100</v>
@@ -2613,7 +2614,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28405243309261363</v>
+        <v>0.3664666872326261</v>
       </c>
       <c r="B30" s="2">
         <v>246</v>
@@ -2637,7 +2638,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3345892890487892E-2</v>
+        <v>0.68991716270183445</v>
       </c>
       <c r="B31" s="2">
         <v>275</v>
@@ -2664,7 +2665,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5441558788395412</v>
+        <v>0.1436863020666711</v>
       </c>
       <c r="B32" s="2">
         <v>218</v>
@@ -2688,7 +2689,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23815100957042534</v>
+        <v>0.16024669904134148</v>
       </c>
       <c r="B33" s="2">
         <v>249</v>
@@ -2709,7 +2710,7 @@
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96737610000176233</v>
+        <v>7.807524774111152E-2</v>
       </c>
       <c r="B34" s="2">
         <v>221</v>
@@ -2733,7 +2734,7 @@
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42281701004939565</v>
+        <v>0.84717703088590934</v>
       </c>
       <c r="B35" s="2">
         <v>114</v>
@@ -2757,7 +2758,7 @@
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71378807040695003</v>
+        <v>0.30367514595705636</v>
       </c>
       <c r="B36" s="2">
         <v>260</v>
@@ -2778,7 +2779,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91928895983423442</v>
+        <v>3.5549447337177686E-2</v>
       </c>
       <c r="B37" s="2">
         <v>253</v>
@@ -2799,7 +2800,7 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14225664582808073</v>
+        <v>0.91516753655606808</v>
       </c>
       <c r="B38" s="2">
         <v>133</v>
@@ -2823,7 +2824,7 @@
     <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37113664653705691</v>
+        <v>0.72046734229504972</v>
       </c>
       <c r="B39" s="2">
         <v>62</v>
@@ -2850,7 +2851,7 @@
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28548792647046528</v>
+        <v>0.81888143925382217</v>
       </c>
       <c r="B40" s="2">
         <v>72</v>
@@ -2874,7 +2875,7 @@
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71657027404816054</v>
+        <v>0.77564982496361712</v>
       </c>
       <c r="B41" s="2">
         <v>147</v>
@@ -2898,7 +2899,7 @@
     <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4195519127295801E-2</v>
+        <v>0.391445331994283</v>
       </c>
       <c r="B42" s="2">
         <v>178</v>
@@ -2922,7 +2923,7 @@
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87258336846500717</v>
+        <v>0.74340300279777527</v>
       </c>
       <c r="B43" s="2">
         <v>76</v>
@@ -2946,7 +2947,7 @@
     <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22872499343587238</v>
+        <v>0.71515610461522316</v>
       </c>
       <c r="B44" s="2">
         <v>238</v>
@@ -2970,7 +2971,7 @@
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60472361838415467</v>
+        <v>0.55336502286156308</v>
       </c>
       <c r="B45" s="2">
         <v>258</v>
@@ -2991,7 +2992,7 @@
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15876260011856291</v>
+        <v>0.32653923945192598</v>
       </c>
       <c r="B46" s="2">
         <v>146</v>
@@ -3015,7 +3016,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69511081331905933</v>
+        <v>0.41437847417456686</v>
       </c>
       <c r="B47" s="2">
         <v>14</v>
@@ -3036,7 +3037,7 @@
     <row r="48" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8340915660810031</v>
+        <v>0.17952087569057729</v>
       </c>
       <c r="B48" s="2">
         <v>265</v>
@@ -3060,7 +3061,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79919374201308802</v>
+        <v>0.30272136207582323</v>
       </c>
       <c r="B49" s="2">
         <v>22</v>
@@ -3081,7 +3082,7 @@
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42691928204156926</v>
+        <v>0.28844700927628275</v>
       </c>
       <c r="B50" s="2">
         <v>169</v>
@@ -3102,7 +3103,7 @@
     <row r="51" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6919983615506744</v>
+        <v>0.48208506310638644</v>
       </c>
       <c r="B51" s="2">
         <v>24</v>
@@ -3126,7 +3127,7 @@
     <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53854946419283778</v>
+        <v>4.7387005278252792E-2</v>
       </c>
       <c r="B52" s="2">
         <v>198</v>
@@ -3150,7 +3151,7 @@
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43428228827114768</v>
+        <v>0.48636834090066849</v>
       </c>
       <c r="B53" s="2">
         <v>136</v>
@@ -3171,7 +3172,7 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83223521031053982</v>
+        <v>0.80324383102028096</v>
       </c>
       <c r="B54" s="2">
         <v>225</v>
@@ -3192,7 +3193,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5726039091162447</v>
+        <v>5.218999812293057E-2</v>
       </c>
       <c r="B55" s="2">
         <v>144</v>
@@ -3216,7 +3217,7 @@
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5325410461800986E-2</v>
+        <v>0.35729782789443398</v>
       </c>
       <c r="B56" s="2">
         <v>54</v>
@@ -3243,7 +3244,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64898665132860989</v>
+        <v>0.80082189410745752</v>
       </c>
       <c r="B57" s="2">
         <v>126</v>
@@ -3270,7 +3271,7 @@
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26334302407145349</v>
+        <v>0.60058487243211234</v>
       </c>
       <c r="B58" s="2">
         <v>129</v>
@@ -3294,7 +3295,7 @@
     <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0020754179212248E-2</v>
+        <v>0.23455352474104585</v>
       </c>
       <c r="B59" s="2">
         <v>19</v>
@@ -3315,7 +3316,7 @@
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50760323759209347</v>
+        <v>0.93475991408817094</v>
       </c>
       <c r="B60" s="2">
         <v>212</v>
@@ -3336,7 +3337,7 @@
     <row r="61" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11874575522320141</v>
+        <v>0.22285523114029482</v>
       </c>
       <c r="B61" s="2">
         <v>109</v>
@@ -3357,7 +3358,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81031755430717534</v>
+        <v>4.8888064269324127E-2</v>
       </c>
       <c r="B62" s="2">
         <v>211</v>
@@ -3378,7 +3379,7 @@
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29462419855107969</v>
+        <v>0.40888341070075473</v>
       </c>
       <c r="B63" s="2">
         <v>152</v>
@@ -3405,7 +3406,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50401827496668838</v>
+        <v>8.8121927109537368E-2</v>
       </c>
       <c r="B64" s="2">
         <v>192</v>
@@ -3426,7 +3427,7 @@
     <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96942147732297113</v>
+        <v>0.15899613600958196</v>
       </c>
       <c r="B65" s="2">
         <v>288</v>
@@ -3450,7 +3451,7 @@
     <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.60547168083601755</v>
+        <v>0.22154048119354242</v>
       </c>
       <c r="B66" s="2">
         <v>13</v>
@@ -3471,7 +3472,7 @@
     <row r="67" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16620424547022483</v>
+        <v>0.63384520773847708</v>
       </c>
       <c r="B67" s="2">
         <v>30</v>
@@ -3495,7 +3496,7 @@
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6045815312488626</v>
+        <v>2.7526159567220154E-2</v>
       </c>
       <c r="B68" s="2">
         <v>74</v>
@@ -3516,7 +3517,7 @@
     <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36663764474568994</v>
+        <v>0.1788764456794405</v>
       </c>
       <c r="B69" s="2">
         <v>4</v>
@@ -3540,7 +3541,7 @@
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50372785980569645</v>
+        <v>0.60577235817234742</v>
       </c>
       <c r="B70" s="2">
         <v>132</v>
@@ -3564,7 +3565,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4841746416347221E-2</v>
+        <v>0.60426154444049474</v>
       </c>
       <c r="B71" s="2">
         <v>81</v>
@@ -3585,7 +3586,7 @@
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64728190740538194</v>
+        <v>0.73910772911196954</v>
       </c>
       <c r="B72" s="2">
         <v>73</v>
@@ -3609,7 +3610,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98242330053738036</v>
+        <v>0.80890864635126336</v>
       </c>
       <c r="B73" s="2">
         <v>117</v>
@@ -3636,7 +3637,7 @@
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30635174618267713</v>
+        <v>0.64976662447295896</v>
       </c>
       <c r="B74" s="2">
         <v>61</v>
@@ -3660,7 +3661,7 @@
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66223673761159918</v>
+        <v>6.7124036816937904E-3</v>
       </c>
       <c r="B75" s="2">
         <v>236</v>
@@ -3684,7 +3685,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2244705498837456</v>
+        <v>0.3107134313500578</v>
       </c>
       <c r="B76" s="2">
         <v>123</v>
@@ -3705,7 +3706,7 @@
     <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1296479382918343</v>
+        <v>0.26901424862108125</v>
       </c>
       <c r="B77" s="2">
         <v>66</v>
@@ -3729,7 +3730,7 @@
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58488673912693523</v>
+        <v>0.30677105778446712</v>
       </c>
       <c r="B78" s="2">
         <v>255</v>
@@ -3753,7 +3754,7 @@
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5160160227994286E-2</v>
+        <v>0.73630513729872871</v>
       </c>
       <c r="B79" s="2">
         <v>55</v>
@@ -3777,7 +3778,7 @@
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92777789571016389</v>
+        <v>0.8804948906790665</v>
       </c>
       <c r="B80" s="2">
         <v>57</v>
@@ -3801,7 +3802,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99744308237418455</v>
+        <v>0.81442933485040769</v>
       </c>
       <c r="B81" s="2">
         <v>104</v>
@@ -3822,7 +3823,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57734775295305418</v>
+        <v>0.49122864215017226</v>
       </c>
       <c r="B82" s="2">
         <v>259</v>
@@ -3849,7 +3850,7 @@
     <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99100211087930068</v>
+        <v>0.49421656819773829</v>
       </c>
       <c r="B83" s="2">
         <v>188</v>
@@ -3873,7 +3874,7 @@
     <row r="84" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12250567654981004</v>
+        <v>0.25081144555572332</v>
       </c>
       <c r="B84" s="2">
         <v>9</v>
@@ -3897,7 +3898,7 @@
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25590606070884969</v>
+        <v>0.96756883584353293</v>
       </c>
       <c r="B85" s="2">
         <v>102</v>
@@ -3924,7 +3925,7 @@
     <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48230823919389831</v>
+        <v>1.7266662949594003E-2</v>
       </c>
       <c r="B86" s="2">
         <v>60</v>
@@ -3948,7 +3949,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1551904437560645E-2</v>
+        <v>0.33179796034477393</v>
       </c>
       <c r="B87" s="2">
         <v>82</v>
@@ -3969,7 +3970,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12935834839548133</v>
+        <v>0.7760364025680051</v>
       </c>
       <c r="B88" s="2">
         <v>276</v>
@@ -3993,7 +3994,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22973772065362141</v>
+        <v>0.2383902252714839</v>
       </c>
       <c r="B89" s="2">
         <v>209</v>
@@ -4017,7 +4018,7 @@
     <row r="90" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46832210391007378</v>
+        <v>0.72337821685148629</v>
       </c>
       <c r="B90" s="2">
         <v>107</v>
@@ -4041,7 +4042,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48722375969918807</v>
+        <v>0.97333768175100444</v>
       </c>
       <c r="B91" s="2">
         <v>89</v>
@@ -4062,7 +4063,7 @@
     <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20781263534140659</v>
+        <v>0.52170786583265905</v>
       </c>
       <c r="B92" s="2">
         <v>243</v>
@@ -4086,7 +4087,7 @@
     <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26275436697353205</v>
+        <v>0.95705574971363228</v>
       </c>
       <c r="B93" s="2">
         <v>112</v>
@@ -4107,7 +4108,7 @@
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79905454485858352</v>
+        <v>0.2834014519257102</v>
       </c>
       <c r="B94" s="2">
         <v>121</v>
@@ -4131,7 +4132,7 @@
     <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59147564713594125</v>
+        <v>0.29557307326659543</v>
       </c>
       <c r="B95" s="2">
         <v>242</v>
@@ -4158,7 +4159,7 @@
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35955409815920525</v>
+        <v>0.15618229056798627</v>
       </c>
       <c r="B96" s="2">
         <v>141</v>
@@ -4182,7 +4183,7 @@
     <row r="97" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51300028691351873</v>
+        <v>0.31853736706176883</v>
       </c>
       <c r="B97" s="2">
         <v>177</v>
@@ -4215,7 +4216,7 @@
     <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36820226813678214</v>
+        <v>1.2776804484959658E-2</v>
       </c>
       <c r="B98" s="2">
         <v>245</v>
@@ -4236,7 +4237,7 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69334711685988237</v>
+        <v>0.65898180921602556</v>
       </c>
       <c r="B99" s="2">
         <v>208</v>
@@ -4257,7 +4258,7 @@
     <row r="100" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80603021553581522</v>
+        <v>0.24805333316484168</v>
       </c>
       <c r="B100" s="2">
         <v>196</v>
@@ -4284,7 +4285,7 @@
     <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60056601241661678</v>
+        <v>0.20457944509642978</v>
       </c>
       <c r="B101" s="2">
         <v>256</v>
@@ -4308,7 +4309,7 @@
     <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48427966726598093</v>
+        <v>0.22539643325953296</v>
       </c>
       <c r="B102" s="2">
         <v>186</v>
@@ -4335,7 +4336,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32253369375888252</v>
+        <v>0.4650099838715861</v>
       </c>
       <c r="B103" s="2">
         <v>193</v>
@@ -4359,7 +4360,7 @@
     <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37405569674782868</v>
+        <v>0.4199109753782394</v>
       </c>
       <c r="B104" s="2">
         <v>235</v>
@@ -4383,7 +4384,7 @@
     <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89490415433989534</v>
+        <v>0.44073846175065035</v>
       </c>
       <c r="B105" s="2">
         <v>229</v>
@@ -4407,7 +4408,7 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84252648780938066</v>
+        <v>0.23775487518330884</v>
       </c>
       <c r="B106" s="2">
         <v>125</v>
@@ -4431,7 +4432,7 @@
     <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3322203247106135E-2</v>
+        <v>0.28751019561765889</v>
       </c>
       <c r="B107" s="2">
         <v>41</v>
@@ -4458,7 +4459,7 @@
     <row r="108" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47267105200811932</v>
+        <v>0.31540924132841841</v>
       </c>
       <c r="B108" s="2">
         <v>101</v>
@@ -4482,7 +4483,7 @@
     <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57720598578459992</v>
+        <v>0.35395257081749976</v>
       </c>
       <c r="B109" s="2">
         <v>45</v>
@@ -4506,7 +4507,7 @@
     <row r="110" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92965189028493767</v>
+        <v>0.46831038089925736</v>
       </c>
       <c r="B110" s="2">
         <v>10</v>
@@ -4527,7 +4528,7 @@
     <row r="111" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8685723871753519</v>
+        <v>0.90622699831937559</v>
       </c>
       <c r="B111" s="2">
         <v>158</v>
@@ -4551,7 +4552,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36072673108661979</v>
+        <v>0.15956656783957612</v>
       </c>
       <c r="B112" s="2">
         <v>174</v>
@@ -4578,7 +4579,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6872965251504265</v>
+        <v>0.35069244145819767</v>
       </c>
       <c r="B113" s="2">
         <v>203</v>
@@ -4602,7 +4603,7 @@
     <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1226528847724313</v>
+        <v>0.48160475058652474</v>
       </c>
       <c r="B114" s="2">
         <v>286</v>
@@ -4626,7 +4627,7 @@
     <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90430368851651377</v>
+        <v>0.4503416589886301</v>
       </c>
       <c r="B115" s="2">
         <v>278</v>
@@ -4647,7 +4648,7 @@
     <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18058215663175614</v>
+        <v>0.84472418298681151</v>
       </c>
       <c r="B116" s="2">
         <v>166</v>
@@ -4674,7 +4675,7 @@
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85169447457379077</v>
+        <v>0.83629549235739142</v>
       </c>
       <c r="B117" s="2">
         <v>268</v>
@@ -4695,7 +4696,7 @@
     <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71381359905380704</v>
+        <v>0.42974997804013093</v>
       </c>
       <c r="B118" s="2">
         <v>68</v>
@@ -4716,7 +4717,7 @@
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8058125386127909</v>
+        <v>6.9112021083373776E-2</v>
       </c>
       <c r="B119" s="2">
         <v>77</v>
@@ -4737,7 +4738,7 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99342495555470178</v>
+        <v>0.56948868961509702</v>
       </c>
       <c r="B120" s="2">
         <v>106</v>
@@ -4761,7 +4762,7 @@
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96932333173895924</v>
+        <v>0.79574479902163375</v>
       </c>
       <c r="B121" s="2">
         <v>99</v>
@@ -4788,7 +4789,7 @@
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20814977698703729</v>
+        <v>0.21615598690564297</v>
       </c>
       <c r="B122" s="2">
         <v>295</v>
@@ -4815,7 +4816,7 @@
     <row r="123" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3369370396813467</v>
+        <v>0.10611809892406898</v>
       </c>
       <c r="B123" s="2">
         <v>1</v>
@@ -4839,7 +4840,7 @@
     <row r="124" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2940189878075241E-2</v>
+        <v>0.41099446808798179</v>
       </c>
       <c r="B124" s="2">
         <v>151</v>
@@ -4863,7 +4864,7 @@
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84196299692734611</v>
+        <v>0.11603713985207276</v>
       </c>
       <c r="B125" s="2">
         <v>131</v>
@@ -4884,7 +4885,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4957330590411031</v>
+        <v>0.14483261879047671</v>
       </c>
       <c r="B126" s="2">
         <v>47</v>
@@ -4905,7 +4906,7 @@
     <row r="127" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57476954504993083</v>
+        <v>0.19910774348358018</v>
       </c>
       <c r="B127" s="2">
         <v>31</v>
@@ -4932,7 +4933,7 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69760202839256868</v>
+        <v>0.44439991829856229</v>
       </c>
       <c r="B128" s="2">
         <v>223</v>
@@ -4956,7 +4957,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68017935732969714</v>
+        <v>0.61614225098755659</v>
       </c>
       <c r="B129" s="2">
         <v>160</v>
@@ -4980,7 +4981,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.74787855659486702</v>
+        <v>0.40198623284109514</v>
       </c>
       <c r="B130" s="2">
         <v>118</v>
@@ -5001,7 +5002,7 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37918267875265732</v>
+        <v>0.60923690210200743</v>
       </c>
       <c r="B131" s="2">
         <v>283</v>
@@ -5022,7 +5023,7 @@
     <row r="132" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77957620939193306</v>
+        <v>0.11359017584613862</v>
       </c>
       <c r="B132" s="2">
         <v>206</v>
@@ -5049,7 +5050,7 @@
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67407672616813297</v>
+        <v>0.27317739221423021</v>
       </c>
       <c r="B133" s="2">
         <v>2</v>
@@ -5073,7 +5074,7 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88978252039160322</v>
+        <v>0.48243956697070767</v>
       </c>
       <c r="B134" s="2">
         <v>87</v>
@@ -5094,7 +5095,7 @@
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29268174421963589</v>
+        <v>0.67554607136077482</v>
       </c>
       <c r="B135" s="2">
         <v>251</v>
@@ -5118,7 +5119,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74731716678279914</v>
+        <v>0.15000471762176526</v>
       </c>
       <c r="B136" s="2">
         <v>78</v>
@@ -5142,7 +5143,7 @@
     <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85047335013715097</v>
+        <v>0.13013857202825085</v>
       </c>
       <c r="B137" s="2">
         <v>71</v>
@@ -5169,7 +5170,7 @@
     <row r="138" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19091024398494283</v>
+        <v>0.5410151438572961</v>
       </c>
       <c r="B138" s="2">
         <v>263</v>
@@ -5190,7 +5191,7 @@
     <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8294933876392544</v>
+        <v>0.68446503312198026</v>
       </c>
       <c r="B139" s="2">
         <v>142</v>
@@ -5211,7 +5212,7 @@
     <row r="140" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30288817107292398</v>
+        <v>0.19582032367127211</v>
       </c>
       <c r="B140" s="2">
         <v>157</v>
@@ -5238,7 +5239,7 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65533510997802003</v>
+        <v>0.14194399758494758</v>
       </c>
       <c r="B141" s="2">
         <v>115</v>
@@ -5259,7 +5260,7 @@
     <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96134889718006378</v>
+        <v>1.8756130163815166E-2</v>
       </c>
       <c r="B142" s="2">
         <v>197</v>
@@ -5280,7 +5281,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10872625828137916</v>
+        <v>0.85348099806971811</v>
       </c>
       <c r="B143" s="2">
         <v>116</v>
@@ -5304,7 +5305,7 @@
     <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60684125118420218</v>
+        <v>0.43110571263957465</v>
       </c>
       <c r="B144" s="2">
         <v>12</v>
@@ -5331,7 +5332,7 @@
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48321888210378949</v>
+        <v>0.22713370644964748</v>
       </c>
       <c r="B145" s="2">
         <v>149</v>
@@ -5355,7 +5356,7 @@
     <row r="146" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50347241129007481</v>
+        <v>0.75590130247537701</v>
       </c>
       <c r="B146" s="2">
         <v>113</v>
@@ -5379,7 +5380,7 @@
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54527550581801298</v>
+        <v>5.1155892850855422E-2</v>
       </c>
       <c r="B147" s="2">
         <v>266</v>
@@ -5400,7 +5401,7 @@
     <row r="148" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39261818525800485</v>
+        <v>3.6276451992873215E-2</v>
       </c>
       <c r="B148" s="2">
         <v>7</v>
@@ -5427,7 +5428,7 @@
     <row r="149" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51197384482679231</v>
+        <v>0.67046321902197425</v>
       </c>
       <c r="B149" s="2">
         <v>269</v>
@@ -5448,7 +5449,7 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9624560714001551</v>
+        <v>0.15090774892212833</v>
       </c>
       <c r="B150" s="2">
         <v>191</v>
@@ -5472,7 +5473,7 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54139609914723896</v>
+        <v>0.60809732885954881</v>
       </c>
       <c r="B151" s="2">
         <v>210</v>
@@ -5496,7 +5497,7 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44820387055765265</v>
+        <v>0.47079361904308359</v>
       </c>
       <c r="B152" s="2">
         <v>88</v>
@@ -5520,7 +5521,7 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8054840180358789E-2</v>
+        <v>0.38078601669856582</v>
       </c>
       <c r="B153" s="2">
         <v>48</v>
@@ -5547,7 +5548,7 @@
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59670023010051865</v>
+        <v>0.23516574611039121</v>
       </c>
       <c r="B154" s="2">
         <v>150</v>
@@ -5571,7 +5572,7 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79041479387396651</v>
+        <v>0.22279389245624948</v>
       </c>
       <c r="B155" s="2">
         <v>224</v>
@@ -5592,7 +5593,7 @@
     <row r="156" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48145508796180447</v>
+        <v>0.48324399005753582</v>
       </c>
       <c r="B156" s="2">
         <v>17</v>
@@ -5613,7 +5614,7 @@
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5516009758354945</v>
+        <v>0.51674125955330164</v>
       </c>
       <c r="B157" s="2">
         <v>127</v>
@@ -5637,7 +5638,7 @@
     <row r="158" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51672096954952984</v>
+        <v>5.7364808886021912E-2</v>
       </c>
       <c r="B158" s="2">
         <v>187</v>
@@ -5658,7 +5659,7 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31568025369730257</v>
+        <v>0.40079065138811065</v>
       </c>
       <c r="B159" s="2">
         <v>241</v>
@@ -5682,7 +5683,7 @@
     <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16210223195166584</v>
+        <v>0.65179423746898502</v>
       </c>
       <c r="B160" s="2">
         <v>98</v>
@@ -5709,7 +5710,7 @@
     <row r="161" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67365626353111008</v>
+        <v>0.17724485482163421</v>
       </c>
       <c r="B161" s="2">
         <v>96</v>
@@ -5739,7 +5740,7 @@
     <row r="162" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6161945056332345E-2</v>
+        <v>0.90016718817739449</v>
       </c>
       <c r="B162" s="2">
         <v>90</v>
@@ -5763,7 +5764,7 @@
     <row r="163" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95564480407940822</v>
+        <v>0.88812197666689008</v>
       </c>
       <c r="B163" s="2">
         <v>204</v>
@@ -5790,7 +5791,7 @@
     <row r="164" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4840636929090785E-2</v>
+        <v>0.45668833872365588</v>
       </c>
       <c r="B164" s="2">
         <v>227</v>
@@ -5817,7 +5818,7 @@
     <row r="165" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76735144014745194</v>
+        <v>0.75985896714898415</v>
       </c>
       <c r="B165" s="2">
         <v>91</v>
@@ -5841,7 +5842,7 @@
     <row r="166" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95517208520311281</v>
+        <v>0.44928639223912725</v>
       </c>
       <c r="B166" s="2">
         <v>167</v>
@@ -5865,7 +5866,7 @@
     <row r="167" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73631071149980343</v>
+        <v>0.63700014924614545</v>
       </c>
       <c r="B167" s="2">
         <v>153</v>
@@ -5892,7 +5893,7 @@
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57051642909617817</v>
+        <v>0.16318274179959147</v>
       </c>
       <c r="B168" s="2">
         <v>195</v>
@@ -5919,7 +5920,7 @@
     <row r="169" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86353701528133175</v>
+        <v>0.27544956202187709</v>
       </c>
       <c r="B169" s="2">
         <v>264</v>
@@ -5946,7 +5947,7 @@
     <row r="170" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92762883921832973</v>
+        <v>0.44655191326889743</v>
       </c>
       <c r="B170" s="2">
         <v>240</v>
@@ -5967,7 +5968,7 @@
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30168052320116823</v>
+        <v>3.6834195420150539E-2</v>
       </c>
       <c r="B171" s="2">
         <v>185</v>
@@ -5991,7 +5992,7 @@
     <row r="172" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6630158785617195E-2</v>
+        <v>0.11820302936559846</v>
       </c>
       <c r="B172" s="2">
         <v>103</v>
@@ -6015,7 +6016,7 @@
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37876824374455498</v>
+        <v>0.72046443852611264</v>
       </c>
       <c r="B173" s="2">
         <v>202</v>
@@ -6039,7 +6040,7 @@
     <row r="174" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12893546597776984</v>
+        <v>0.35542820765313643</v>
       </c>
       <c r="B174" s="2">
         <v>39</v>
@@ -6060,7 +6061,7 @@
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31091242783513229</v>
+        <v>0.7882959411974596</v>
       </c>
       <c r="B175" s="2">
         <v>302</v>
@@ -6084,7 +6085,7 @@
     <row r="176" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9190076412487509</v>
+        <v>0.16901868593654301</v>
       </c>
       <c r="B176" s="2">
         <v>134</v>
@@ -6108,7 +6109,7 @@
     <row r="177" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73992164831858243</v>
+        <v>0.88123285435160703</v>
       </c>
       <c r="B177" s="2">
         <v>8</v>
@@ -6132,7 +6133,7 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77124710055005008</v>
+        <v>0.16611095373648055</v>
       </c>
       <c r="B178" s="2">
         <v>85</v>
@@ -6156,7 +6157,7 @@
     <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23033505994571613</v>
+        <v>0.22930083618776453</v>
       </c>
       <c r="B179" s="2">
         <v>297</v>
@@ -6177,7 +6178,7 @@
     <row r="180" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68806212024337088</v>
+        <v>0.18151653428101555</v>
       </c>
       <c r="B180" s="2">
         <v>69</v>
@@ -6201,7 +6202,7 @@
     <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32096097895439257</v>
+        <v>0.93720435472520769</v>
       </c>
       <c r="B181" s="2">
         <v>261</v>
@@ -6225,7 +6226,7 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6096780060533975</v>
+        <v>0.78270191058225691</v>
       </c>
       <c r="B182" s="2">
         <v>194</v>
@@ -6246,7 +6247,7 @@
     <row r="183" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98191964177401836</v>
+        <v>0.43007874884779418</v>
       </c>
       <c r="B183" s="2">
         <v>205</v>
@@ -6270,7 +6271,7 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67358099473509325</v>
+        <v>0.58355255033855324</v>
       </c>
       <c r="B184" s="2">
         <v>181</v>
@@ -6297,7 +6298,7 @@
     <row r="185" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43224973263157962</v>
+        <v>0.45332870564034378</v>
       </c>
       <c r="B185" s="2">
         <v>182</v>
@@ -6321,7 +6322,7 @@
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50831527324211878</v>
+        <v>0.35240353916559286</v>
       </c>
       <c r="B186" s="2">
         <v>222</v>
@@ -6345,7 +6346,7 @@
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68000095192409915</v>
+        <v>0.68209000559154565</v>
       </c>
       <c r="B187" s="2">
         <v>274</v>
@@ -6369,7 +6370,7 @@
     <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99033260636571663</v>
+        <v>0.99637522674314871</v>
       </c>
       <c r="B188" s="2">
         <v>164</v>
@@ -6390,7 +6391,7 @@
     <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19164440879677991</v>
+        <v>0.47693201364794857</v>
       </c>
       <c r="B189" s="2">
         <v>296</v>
@@ -6411,7 +6412,7 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39994207521189096</v>
+        <v>0.54366190799241665</v>
       </c>
       <c r="B190" s="2">
         <v>170</v>
@@ -6435,7 +6436,7 @@
     <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38253725747835376</v>
+        <v>7.8720594953437861E-2</v>
       </c>
       <c r="B191" s="2">
         <v>93</v>
@@ -6459,7 +6460,7 @@
     <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85906453057978094</v>
+        <v>0.62335877867057921</v>
       </c>
       <c r="B192" s="2">
         <v>230</v>
@@ -6480,7 +6481,7 @@
     <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78412544011828222</v>
+        <v>0.14784865588810037</v>
       </c>
       <c r="B193" s="2">
         <v>282</v>
@@ -6501,7 +6502,7 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.81255183834239797</v>
+        <v>0.93186895742772968</v>
       </c>
       <c r="B194" s="2">
         <v>284</v>
@@ -6525,7 +6526,7 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67512298106146729</v>
+        <v>0.57774994477658748</v>
       </c>
       <c r="B195" s="2">
         <v>86</v>
@@ -6546,7 +6547,7 @@
     <row r="196" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46925226674424003</v>
+        <v>0.10192932870874016</v>
       </c>
       <c r="B196" s="2">
         <v>252</v>
@@ -6570,7 +6571,7 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88983557343748632</v>
+        <v>0.23783709550905641</v>
       </c>
       <c r="B197" s="2">
         <v>292</v>
@@ -6594,7 +6595,7 @@
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15324401601187188</v>
+        <v>0.58424428235690196</v>
       </c>
       <c r="B198" s="2">
         <v>95</v>
@@ -6621,7 +6622,7 @@
     <row r="199" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59493155028754119</v>
+        <v>0.55331568159498945</v>
       </c>
       <c r="B199" s="2">
         <v>110</v>
@@ -6648,7 +6649,7 @@
     <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40273579389252834</v>
+        <v>0.66454693278800503</v>
       </c>
       <c r="B200" s="2">
         <v>92</v>
@@ -6669,7 +6670,7 @@
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63113858482837193</v>
+        <v>0.48814986745279842</v>
       </c>
       <c r="B201" s="2">
         <v>267</v>
@@ -6690,7 +6691,7 @@
     <row r="202" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52589557191247016</v>
+        <v>0.19401587553064847</v>
       </c>
       <c r="B202" s="2">
         <v>111</v>
@@ -6714,7 +6715,7 @@
     <row r="203" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63034455472918793</v>
+        <v>1.2269544320509418E-2</v>
       </c>
       <c r="B203" s="2">
         <v>183</v>
@@ -6738,7 +6739,7 @@
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31822047964944766</v>
+        <v>0.64601652147137789</v>
       </c>
       <c r="B204" s="2">
         <v>140</v>
@@ -6765,7 +6766,7 @@
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11638107520010266</v>
+        <v>0.19118039480425242</v>
       </c>
       <c r="B205" s="2">
         <v>273</v>
@@ -6792,7 +6793,7 @@
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71691420595554201</v>
+        <v>0.62084960897725527</v>
       </c>
       <c r="B206" s="2">
         <v>139</v>
@@ -6816,7 +6817,7 @@
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48112496691193019</v>
+        <v>0.54338684740685683</v>
       </c>
       <c r="B207" s="2">
         <v>285</v>
@@ -6840,7 +6841,7 @@
     <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57271789632709225</v>
+        <v>0.7340650004126793</v>
       </c>
       <c r="B208" s="2">
         <v>270</v>
@@ -6861,7 +6862,7 @@
     <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20364459804123225</v>
+        <v>0.13422552929192244</v>
       </c>
       <c r="B209" s="2">
         <v>34</v>
@@ -6882,7 +6883,7 @@
     <row r="210" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98943750430192245</v>
+        <v>0.41149048858044079</v>
       </c>
       <c r="B210" s="2">
         <v>70</v>
@@ -6909,7 +6910,7 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75421171861373226</v>
+        <v>0.4898775568892092</v>
       </c>
       <c r="B211" s="2">
         <v>161</v>
@@ -6930,7 +6931,7 @@
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19508386078398932</v>
+        <v>0.55154535483675404</v>
       </c>
       <c r="B212" s="2">
         <v>215</v>
@@ -6957,7 +6958,7 @@
     <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72305811764834194</v>
+        <v>0.50123598355605514</v>
       </c>
       <c r="B213" s="2">
         <v>172</v>
@@ -6981,7 +6982,7 @@
     <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92430064256307243</v>
+        <v>0.15621679173611469</v>
       </c>
       <c r="B214" s="2">
         <v>36</v>
@@ -7002,7 +7003,7 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2616934380188476E-2</v>
+        <v>0.83482758728088058</v>
       </c>
       <c r="B215" s="2">
         <v>16</v>
@@ -7023,7 +7024,7 @@
     <row r="216" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2250536757562092E-3</v>
+        <v>0.62819632798067437</v>
       </c>
       <c r="B216" s="2">
         <v>254</v>
@@ -7047,7 +7048,7 @@
     <row r="217" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29623974238523643</v>
+        <v>0.46362544980591713</v>
       </c>
       <c r="B217" s="2">
         <v>214</v>
@@ -7071,7 +7072,7 @@
     <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53532892351484707</v>
+        <v>0.95465310736279674</v>
       </c>
       <c r="B218" s="2">
         <v>67</v>
@@ -7095,7 +7096,7 @@
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62494405059250546</v>
+        <v>0.25717971277499319</v>
       </c>
       <c r="B219" s="2">
         <v>154</v>
@@ -7122,7 +7123,7 @@
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17637812652425067</v>
+        <v>0.43747297234148896</v>
       </c>
       <c r="B220" s="2">
         <v>137</v>
@@ -7146,7 +7147,7 @@
     <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27873216643592358</v>
+        <v>0.28267702773064252</v>
       </c>
       <c r="B221" s="2">
         <v>213</v>
@@ -7173,7 +7174,7 @@
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55969580235622829</v>
+        <v>0.92104167127027026</v>
       </c>
       <c r="B222" s="2">
         <v>33</v>
@@ -7197,7 +7198,7 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4338069529931392E-2</v>
+        <v>0.27444033576170901</v>
       </c>
       <c r="B223" s="2">
         <v>124</v>
@@ -7221,7 +7222,7 @@
     <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46255517744099539</v>
+        <v>0.99159531763911091</v>
       </c>
       <c r="B224" s="2">
         <v>237</v>
@@ -7248,7 +7249,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96603358861037469</v>
+        <v>1.5561012365345794E-2</v>
       </c>
       <c r="B225" s="2">
         <v>58</v>
@@ -7269,7 +7270,7 @@
     <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34388183578898335</v>
+        <v>0.63745256859106281</v>
       </c>
       <c r="B226" s="2">
         <v>155</v>
@@ -7293,7 +7294,7 @@
     <row r="227" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19528925140390219</v>
+        <v>0.56205196743581798</v>
       </c>
       <c r="B227" s="2">
         <v>156</v>
@@ -7314,7 +7315,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73311660934729461</v>
+        <v>0.83093725218680015</v>
       </c>
       <c r="B228" s="2">
         <v>15</v>
@@ -7335,7 +7336,7 @@
     <row r="229" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86619486807257573</v>
+        <v>0.29839958177515602</v>
       </c>
       <c r="B229" s="2">
         <v>281</v>
@@ -7362,7 +7363,7 @@
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44493255040689739</v>
+        <v>0.48300636521369578</v>
       </c>
       <c r="B230" s="2">
         <v>53</v>
@@ -7389,7 +7390,7 @@
     <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61336239300413342</v>
+        <v>0.65204391739733436</v>
       </c>
       <c r="B231" s="2">
         <v>5</v>
@@ -7413,7 +7414,7 @@
     <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2393600894959627E-2</v>
+        <v>0.99422362476339698</v>
       </c>
       <c r="B232" s="2">
         <v>3</v>
@@ -7440,7 +7441,7 @@
     <row r="233" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47435781595798099</v>
+        <v>4.9571937225807661E-2</v>
       </c>
       <c r="B233" s="2">
         <v>271</v>
@@ -7461,7 +7462,7 @@
     <row r="234" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50739698229548591</v>
+        <v>0.51125612666599451</v>
       </c>
       <c r="B234" s="2">
         <v>233</v>
@@ -7482,7 +7483,7 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4588679976669352</v>
+        <v>0.28738397930643855</v>
       </c>
       <c r="B235" s="2">
         <v>105</v>
@@ -7506,7 +7507,7 @@
     <row r="236" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65357806123983653</v>
+        <v>0.73256486521566422</v>
       </c>
       <c r="B236" s="2">
         <v>290</v>
@@ -7530,7 +7531,7 @@
     <row r="237" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95267496073754254</v>
+        <v>0.36336731594280236</v>
       </c>
       <c r="B237" s="2">
         <v>291</v>
@@ -7554,7 +7555,7 @@
     <row r="238" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24260805711038924</v>
+        <v>0.24902930973388837</v>
       </c>
       <c r="B238" s="2">
         <v>219</v>
@@ -7578,7 +7579,7 @@
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16290143255352851</v>
+        <v>0.27446453893454126</v>
       </c>
       <c r="B239" s="2">
         <v>179</v>
@@ -7599,7 +7600,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88356501631017326</v>
+        <v>8.4450733951736745E-2</v>
       </c>
       <c r="B240" s="2">
         <v>80</v>
@@ -7620,7 +7621,7 @@
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3833994794575699E-2</v>
+        <v>0.61360953101373872</v>
       </c>
       <c r="B241" s="2">
         <v>27</v>
@@ -7641,7 +7642,7 @@
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82477897149391233</v>
+        <v>0.37144599215876595</v>
       </c>
       <c r="B242" s="2">
         <v>301</v>
@@ -7665,7 +7666,7 @@
     <row r="243" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25806882156564015</v>
+        <v>0.14683076758975144</v>
       </c>
       <c r="B243" s="2">
         <v>190</v>
@@ -7692,7 +7693,7 @@
     <row r="244" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44699219281722591</v>
+        <v>6.1546533354564281E-2</v>
       </c>
       <c r="B244" s="2">
         <v>108</v>
@@ -7716,7 +7717,7 @@
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1291045628893159E-2</v>
+        <v>0.1156324259676732</v>
       </c>
       <c r="B245" s="2">
         <v>42</v>
@@ -7740,7 +7741,7 @@
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47137243751506874</v>
+        <v>0.82665486657275467</v>
       </c>
       <c r="B246" s="2">
         <v>250</v>
@@ -7764,7 +7765,7 @@
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73817752010889448</v>
+        <v>0.88888140273714689</v>
       </c>
       <c r="B247" s="2">
         <v>298</v>
@@ -7785,7 +7786,7 @@
     <row r="248" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46461153133900712</v>
+        <v>0.46454396657501196</v>
       </c>
       <c r="B248" s="2">
         <v>84</v>
@@ -7812,7 +7813,7 @@
     <row r="249" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19296554759694817</v>
+        <v>0.24806940817562384</v>
       </c>
       <c r="B249" s="2">
         <v>234</v>
@@ -7836,7 +7837,7 @@
     <row r="250" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53546100559212528</v>
+        <v>0.62092977767721169</v>
       </c>
       <c r="B250" s="2">
         <v>135</v>
@@ -7866,7 +7867,7 @@
     <row r="251" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8196443233817212E-2</v>
+        <v>0.56820663249569747</v>
       </c>
       <c r="B251" s="2">
         <v>207</v>
@@ -7890,7 +7891,7 @@
     <row r="252" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9458112352963377</v>
+        <v>0.32972778824454896</v>
       </c>
       <c r="B252" s="2">
         <v>25</v>
@@ -7911,7 +7912,7 @@
     <row r="253" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15595359274558596</v>
+        <v>0.18500102382841532</v>
       </c>
       <c r="B253" s="2">
         <v>279</v>
@@ -7935,7 +7936,7 @@
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38455692861013346</v>
+        <v>0.40104311832368322</v>
       </c>
       <c r="B254" s="2">
         <v>65</v>
@@ -7962,7 +7963,7 @@
     <row r="255" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8887299928826573</v>
+        <v>0.78250779809206505</v>
       </c>
       <c r="B255" s="2">
         <v>56</v>
@@ -7989,7 +7990,7 @@
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39792673668939094</v>
+        <v>0.97587046651925635</v>
       </c>
       <c r="B256" s="2">
         <v>59</v>
@@ -8013,7 +8014,7 @@
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9491996432927734</v>
+        <v>0.51306109403505373</v>
       </c>
       <c r="B257" s="2">
         <v>248</v>
@@ -8037,7 +8038,7 @@
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A303" ca="1" si="4">RAND()</f>
-        <v>0.36356797147517006</v>
+        <v>0.59784502368803472</v>
       </c>
       <c r="B258" s="2">
         <v>171</v>
@@ -8061,7 +8062,7 @@
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82124698207432056</v>
+        <v>0.23569210025306275</v>
       </c>
       <c r="B259" s="2">
         <v>294</v>
@@ -8085,7 +8086,7 @@
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5213195912255042E-2</v>
+        <v>0.66614974466789834</v>
       </c>
       <c r="B260" s="2">
         <v>277</v>
@@ -8109,7 +8110,7 @@
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7040242009938934</v>
+        <v>0.5532533293661035</v>
       </c>
       <c r="B261" s="2">
         <v>173</v>
@@ -8136,7 +8137,7 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32256279247070241</v>
+        <v>0.9904559302339796</v>
       </c>
       <c r="B262" s="2">
         <v>299</v>
@@ -8157,7 +8158,7 @@
     <row r="263" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58124820209723527</v>
+        <v>0.14189690978523184</v>
       </c>
       <c r="B263" s="2">
         <v>32</v>
@@ -8181,7 +8182,7 @@
     <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95902151225915511</v>
+        <v>0.82697450360403146</v>
       </c>
       <c r="B264" s="2">
         <v>232</v>
@@ -8208,7 +8209,7 @@
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62794970708945208</v>
+        <v>0.53041562348802007</v>
       </c>
       <c r="B265" s="2">
         <v>51</v>
@@ -8232,7 +8233,7 @@
     <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5629711203046045</v>
+        <v>0.95618662112308894</v>
       </c>
       <c r="B266" s="2">
         <v>29</v>
@@ -8256,7 +8257,7 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.112586347411754</v>
+        <v>0.87821601918024839</v>
       </c>
       <c r="B267" s="2">
         <v>49</v>
@@ -8277,7 +8278,7 @@
     <row r="268" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97853452742331803</v>
+        <v>0.9474137422992549</v>
       </c>
       <c r="B268" s="2">
         <v>262</v>
@@ -8301,7 +8302,7 @@
     <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1136879795445456E-2</v>
+        <v>0.95560507307769627</v>
       </c>
       <c r="B269" s="2">
         <v>26</v>
@@ -8325,7 +8326,7 @@
     <row r="270" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93121032417382654</v>
+        <v>0.69954794300190137</v>
       </c>
       <c r="B270" s="2">
         <v>165</v>
@@ -8349,7 +8350,7 @@
     <row r="271" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10560110442638027</v>
+        <v>0.6298956333313257</v>
       </c>
       <c r="B271" s="2">
         <v>18</v>
@@ -8373,7 +8374,7 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38632545605321833</v>
+        <v>0.21032581416921226</v>
       </c>
       <c r="B272" s="2">
         <v>46</v>
@@ -8397,7 +8398,7 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42354858820542185</v>
+        <v>0.90839271289453893</v>
       </c>
       <c r="B273" s="2">
         <v>28</v>
@@ -8421,7 +8422,7 @@
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25624995212447188</v>
+        <v>0.75673627131258525</v>
       </c>
       <c r="B274" s="2">
         <v>20</v>
@@ -8442,7 +8443,7 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24014357393510632</v>
+        <v>0.35207350644763036</v>
       </c>
       <c r="B275" s="2">
         <v>163</v>
@@ -8463,7 +8464,7 @@
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17021063300359174</v>
+        <v>1.4432108285548972E-2</v>
       </c>
       <c r="B276" s="2">
         <v>293</v>
@@ -8484,7 +8485,7 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98304864927384772</v>
+        <v>0.25007629762180694</v>
       </c>
       <c r="B277" s="2">
         <v>162</v>
@@ -8508,7 +8509,7 @@
     <row r="278" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50838746447206895</v>
+        <v>0.15549808518785269</v>
       </c>
       <c r="B278" s="2">
         <v>176</v>
@@ -8532,7 +8533,7 @@
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44845254729398498</v>
+        <v>0.83421326681311248</v>
       </c>
       <c r="B279" s="2">
         <v>145</v>
@@ -8553,7 +8554,7 @@
     <row r="280" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66113425506167356</v>
+        <v>0.83655559020746584</v>
       </c>
       <c r="B280" s="2">
         <v>280</v>
@@ -8577,7 +8578,7 @@
     <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3994870832879776E-2</v>
+        <v>0.73302564285613581</v>
       </c>
       <c r="B281" s="2">
         <v>228</v>
@@ -8601,7 +8602,7 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66235855839324764</v>
+        <v>0.4490811609476637</v>
       </c>
       <c r="B282" s="2">
         <v>35</v>
@@ -8625,7 +8626,7 @@
     <row r="283" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51157972470395063</v>
+        <v>0.31246399662229407</v>
       </c>
       <c r="B283" s="2">
         <v>184</v>
@@ -8646,7 +8647,7 @@
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58142477335882359</v>
+        <v>0.28172832168329198</v>
       </c>
       <c r="B284" s="2">
         <v>50</v>
@@ -8667,7 +8668,7 @@
     <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3336593397417621</v>
+        <v>0.73597828837545354</v>
       </c>
       <c r="B285" s="2">
         <v>83</v>
@@ -8691,7 +8692,7 @@
     <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46494234952149283</v>
+        <v>0.12083932652189222</v>
       </c>
       <c r="B286" s="2">
         <v>130</v>
@@ -8718,7 +8719,7 @@
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2909176296251198</v>
+        <v>0.9050068784558748</v>
       </c>
       <c r="B287" s="2">
         <v>21</v>
@@ -8742,7 +8743,7 @@
     <row r="288" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30632693985013604</v>
+        <v>0.8871296718411682</v>
       </c>
       <c r="B288" s="2">
         <v>189</v>
@@ -8763,7 +8764,7 @@
     <row r="289" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8428355171412204</v>
+        <v>6.1363726795161555E-2</v>
       </c>
       <c r="B289" s="2">
         <v>220</v>
@@ -8790,7 +8791,7 @@
     <row r="290" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96306766821565515</v>
+        <v>0.39076372216597299</v>
       </c>
       <c r="B290" s="2">
         <v>226</v>
@@ -8814,7 +8815,7 @@
     <row r="291" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44597328646367584</v>
+        <v>0.95650515787120483</v>
       </c>
       <c r="B291" s="2">
         <v>257</v>
@@ -8841,7 +8842,7 @@
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66701546733677464</v>
+        <v>6.9874393075485264E-3</v>
       </c>
       <c r="B292" s="2">
         <v>143</v>
@@ -8868,7 +8869,7 @@
     <row r="293" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45387346619355562</v>
+        <v>0.83459174565578198</v>
       </c>
       <c r="B293" s="2">
         <v>239</v>
@@ -8898,7 +8899,7 @@
     <row r="294" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4845067948766886E-2</v>
+        <v>0.26042013993252378</v>
       </c>
       <c r="B294" s="2">
         <v>120</v>
@@ -8922,7 +8923,7 @@
     <row r="295" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88741164080102586</v>
+        <v>0.62130309814755524</v>
       </c>
       <c r="B295" s="2">
         <v>94</v>
@@ -8949,7 +8950,7 @@
     <row r="296" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30198634839346106</v>
+        <v>0.56016312188414519</v>
       </c>
       <c r="B296" s="2">
         <v>79</v>
@@ -8973,7 +8974,7 @@
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3790125083783572</v>
+        <v>0.14474596676141938</v>
       </c>
       <c r="B297" s="2">
         <v>200</v>
@@ -8997,7 +8998,7 @@
     <row r="298" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87049927993611687</v>
+        <v>0.86925182595539485</v>
       </c>
       <c r="B298" s="2">
         <v>272</v>
@@ -9021,7 +9022,7 @@
     <row r="299" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16002251148616708</v>
+        <v>0.77588109241910297</v>
       </c>
       <c r="B299" s="2">
         <v>244</v>
@@ -9045,7 +9046,7 @@
     <row r="300" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8000125214652596E-2</v>
+        <v>0.54414328017158609</v>
       </c>
       <c r="B300" s="2">
         <v>97</v>
@@ -9072,7 +9073,7 @@
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49173269118143181</v>
+        <v>0.4313075174883737</v>
       </c>
       <c r="B301" s="2">
         <v>159</v>
@@ -9096,7 +9097,7 @@
     <row r="302" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14076837722985802</v>
+        <v>6.6616306132704084E-2</v>
       </c>
       <c r="B302" s="2">
         <v>43</v>
@@ -9120,7 +9121,7 @@
     <row r="303" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79422183329955842</v>
+        <v>0.51290951841992161</v>
       </c>
       <c r="B303" s="2">
         <v>44</v>
@@ -9361,7 +9362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+    <sheetView topLeftCell="A289" workbookViewId="0">
       <selection activeCell="A374" sqref="A304:XFD374"/>
     </sheetView>
   </sheetViews>
